--- a/be/uploads/student_grade.xlsx
+++ b/be/uploads/student_grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baohoang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D7094D-45EA-AF43-B7C4-0721F16A17BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD6CBE-2D58-B240-BBDD-93A1A3F3F7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F5681E3F-1A2C-41D3-9BDD-AE8D095EB77D}"/>
+    <workbookView xWindow="4380" yWindow="0" windowWidth="24420" windowHeight="18000" xr2:uid="{F5681E3F-1A2C-41D3-9BDD-AE8D095EB77D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
